--- a/CodeSystem-anc-reason-for-visit-cs.xlsx
+++ b/CodeSystem-anc-reason-for-visit-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T19:16:54+00:00</t>
+    <t>2024-11-14T21:29:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-anc-reason-for-visit-cs.xlsx
+++ b/CodeSystem-anc-reason-for-visit-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/cpg/antenatalcare/CodeSystem/anc-reason-for-visit-cs</t>
+    <t>http://github.com/cqframework/cpg-example-anc/CodeSystem/anc-reason-for-visit-cs</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T21:29:13+00:00</t>
+    <t>2024-11-14T21:47:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/cpg/antenatalcare/ValueSet/anc-reason-for-visit-vs</t>
+    <t>http://github.com/cqframework/cpg-example-anc/ValueSet/anc-reason-for-visit-vs</t>
   </si>
   <si>
     <t>Hierarchy</t>

--- a/CodeSystem-anc-reason-for-visit-cs.xlsx
+++ b/CodeSystem-anc-reason-for-visit-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://github.com/cqframework/cpg-example-anc/CodeSystem/anc-reason-for-visit-cs</t>
+    <t>https://cqframework.org/cpg-example-anc/CodeSystem/anc-reason-for-visit-cs</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T21:47:49+00:00</t>
+    <t>2024-11-18T16:22:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://github.com/cqframework/cpg-example-anc/ValueSet/anc-reason-for-visit-vs</t>
+    <t>https://cqframework.org/cpg-example-anc/ValueSet/anc-reason-for-visit-vs</t>
   </si>
   <si>
     <t>Hierarchy</t>

--- a/CodeSystem-anc-reason-for-visit-cs.xlsx
+++ b/CodeSystem-anc-reason-for-visit-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://cqframework.org/cpg-example-anc/CodeSystem/anc-reason-for-visit-cs</t>
+    <t>http://cqframework.org/cpg-example-anc/CodeSystem/anc-reason-for-visit-cs</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T16:22:18+00:00</t>
+    <t>2024-11-18T16:40:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>https://cqframework.org/cpg-example-anc/ValueSet/anc-reason-for-visit-vs</t>
+    <t>http://cqframework.org/cpg-example-anc/ValueSet/anc-reason-for-visit-vs</t>
   </si>
   <si>
     <t>Hierarchy</t>

--- a/CodeSystem-anc-reason-for-visit-cs.xlsx
+++ b/CodeSystem-anc-reason-for-visit-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T16:40:29+00:00</t>
+    <t>2024-11-18T17:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
